--- a/com.crm.framework/src/test/resources/TestData.xlsx
+++ b/com.crm.framework/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +109,159 @@
   </si>
   <si>
     <t>Last460</t>
+  </si>
+  <si>
+    <t>Org569</t>
+  </si>
+  <si>
+    <t>Org813</t>
+  </si>
+  <si>
+    <t>Org336</t>
+  </si>
+  <si>
+    <t>Org85</t>
+  </si>
+  <si>
+    <t>Org951</t>
+  </si>
+  <si>
+    <t>Org126</t>
+  </si>
+  <si>
+    <t>Org621</t>
+  </si>
+  <si>
+    <t>Org478</t>
+  </si>
+  <si>
+    <t>Org560</t>
+  </si>
+  <si>
+    <t>Org5</t>
+  </si>
+  <si>
+    <t>Org186</t>
+  </si>
+  <si>
+    <t>Org547</t>
+  </si>
+  <si>
+    <t>Org34</t>
+  </si>
+  <si>
+    <t>Org675</t>
+  </si>
+  <si>
+    <t>Org182</t>
+  </si>
+  <si>
+    <t>Org597</t>
+  </si>
+  <si>
+    <t>Product838</t>
+  </si>
+  <si>
+    <t>Ven814</t>
+  </si>
+  <si>
+    <t>HP930</t>
+  </si>
+  <si>
+    <t>HP349</t>
+  </si>
+  <si>
+    <t>HP674</t>
+  </si>
+  <si>
+    <t>HP760</t>
+  </si>
+  <si>
+    <t>Org619</t>
+  </si>
+  <si>
+    <t>cont480</t>
+  </si>
+  <si>
+    <t>Last305</t>
+  </si>
+  <si>
+    <t>Product375</t>
+  </si>
+  <si>
+    <t>Ven713</t>
+  </si>
+  <si>
+    <t>HP73</t>
+  </si>
+  <si>
+    <t>cont734</t>
+  </si>
+  <si>
+    <t>Last533</t>
+  </si>
+  <si>
+    <t>Org608</t>
+  </si>
+  <si>
+    <t>Org797</t>
+  </si>
+  <si>
+    <t>Product40</t>
+  </si>
+  <si>
+    <t>Ven570</t>
+  </si>
+  <si>
+    <t>HP262</t>
+  </si>
+  <si>
+    <t>HP281</t>
+  </si>
+  <si>
+    <t>HP840</t>
+  </si>
+  <si>
+    <t>HP919</t>
+  </si>
+  <si>
+    <t>cont33</t>
+  </si>
+  <si>
+    <t>Last751</t>
+  </si>
+  <si>
+    <t>Org613</t>
+  </si>
+  <si>
+    <t>Org761</t>
+  </si>
+  <si>
+    <t>Product883</t>
+  </si>
+  <si>
+    <t>Ven637</t>
+  </si>
+  <si>
+    <t>HP791</t>
+  </si>
+  <si>
+    <t>cont777</t>
+  </si>
+  <si>
+    <t>Last124</t>
+  </si>
+  <si>
+    <t>Org651</t>
+  </si>
+  <si>
+    <t>Org786</t>
+  </si>
+  <si>
+    <t>Product212</t>
+  </si>
+  <si>
+    <t>Ven836</t>
   </si>
 </sst>
 </file>
@@ -467,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -566,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
